--- a/test.xlsx
+++ b/test.xlsx
@@ -46,8 +46,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,188 +425,188 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Etymology 1</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Etymology 2</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>inh From 0</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Pronunciation</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Verb</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>Adjective</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>inh From 0</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="1" t="inlineStr">
         <is>
           <t>Pronunciation</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="P2" s="1" t="inlineStr">
         <is>
           <t>Verb</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="R2" s="1" t="inlineStr">
         <is>
           <t>Adverb</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>ar</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>translation</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="1" t="inlineStr">
         <is>
           <t>transliteration</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="1" t="inlineStr">
         <is>
           <t>pron_text</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>Audio</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>fr</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>translation</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>transliteration</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="N3" s="1" t="inlineStr">
         <is>
           <t>pron_text</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="1" t="inlineStr">
         <is>
           <t>Audio</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R3" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="1" t="inlineStr">
         <is>
           <t>ary</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>meaning</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="1" t="inlineStr">
         <is>
           <t>examples</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>meaning</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="1" t="inlineStr">
         <is>
           <t>examples</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="1" t="inlineStr">
         <is>
           <t>ary</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="1" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="P4" s="1" t="inlineStr">
         <is>
           <t>meaning</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" s="1" t="inlineStr">
         <is>
           <t>examples</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R4" s="1" t="inlineStr">
         <is>
           <t>meaning</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="S4" s="1" t="inlineStr">
         <is>
           <t>examples</t>
         </is>
@@ -733,6 +736,44 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="M3"/>
+    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="D3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G4"/>
+    <mergeCell ref="I4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="S4"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3"/>
+    <mergeCell ref="C3"/>
+    <mergeCell ref="F4"/>
+    <mergeCell ref="O3"/>
+    <mergeCell ref="E3"/>
+    <mergeCell ref="N4"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P4"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="H4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="R4"/>
+    <mergeCell ref="E4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="N3"/>
+    <mergeCell ref="F3"/>
+    <mergeCell ref="L3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="O4"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="Q4"/>
+    <mergeCell ref="J4"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -46,11 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -416,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,355 +422,266 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Etymology 1</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Etymology 2</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>inh From 0</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Pronunciation</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>Verb</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>Adjective</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>inh From 0</t>
-        </is>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>Pronunciation</t>
-        </is>
-      </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>Verb</t>
-        </is>
-      </c>
-      <c r="R2" s="1" t="inlineStr">
-        <is>
-          <t>Adverb</t>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Noun</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>der From 0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Alternative forms</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>ar</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>translation</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>transliteration</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>pron_text</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Audio</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
-        <is>
-          <t>fr</t>
-        </is>
-      </c>
-      <c r="L3" s="1" t="inlineStr">
-        <is>
-          <t>translation</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>transliteration</t>
-        </is>
-      </c>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>pron_text</t>
-        </is>
-      </c>
-      <c r="O3" s="1" t="inlineStr">
-        <is>
-          <t>Audio</t>
-        </is>
-      </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R3" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Fem 1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Fem 2</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>singular 1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>singular 2</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>pl 1</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>pl 2</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>gender 1</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>gender 2</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>ary</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>meaning</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>examples</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>meaning</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>examples</t>
-        </is>
-      </c>
-      <c r="N4" s="1" t="inlineStr">
-        <is>
-          <t>ary</t>
-        </is>
-      </c>
-      <c r="O4" s="1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" s="1" t="inlineStr">
-        <is>
-          <t>meaning</t>
-        </is>
-      </c>
-      <c r="Q4" s="1" t="inlineStr">
-        <is>
-          <t>examples</t>
-        </is>
-      </c>
-      <c r="R4" s="1" t="inlineStr">
-        <is>
-          <t>meaning</t>
-        </is>
-      </c>
-      <c r="S4" s="1" t="inlineStr">
-        <is>
-          <t>examples</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
+    </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>آدى</t>
+          <t>بالتوفيق</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>آذَى</t>
+          <t>بِالتَّوْفِيق</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>/ʔaː.da/</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>LL-Q56426 (ary)-Fenakhay-آدى.wav</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> to harm</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">syn ضر, جرح, </t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>آذَى</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>/ʔaː.da/</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>LL-Q56426 (ary)-Fenakhay-آدى.wav</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> to harm</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">syn ضر, جرح, </t>
+          <t>/bɪt.taw.fiːq/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>آدو</t>
+          <t>بالسلامة</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>آذَى</t>
+          <t>بِالسَّلامَة</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>/ʔaː.da/</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>LL-Q56426 (ary)-Fenakhay-آدى.wav</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> to harm</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">syn ضر, جرح, </t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>آذَى</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>/ʔaː.da/</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>LL-Q56426 (ary)-Fenakhay-آدى.wav</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> to harm</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">syn ضر, جرح, </t>
+          <t>/b‿ɪs.slaː.ma/</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>شكرا</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>šukran</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>LL-Q56426 (ary)-Fenakhay-شكرا.wav</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>قلاوي</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>qlāwi</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> (vulgar, slang) dude</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> وا القلاوي ،شباغي مني عاود؟</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>مرحبا</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>مَرْحَبًا</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>/marħba/</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>وخا</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>وَخَّى</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>to lead, to aim</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>waḵḵa</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>واخا</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="M3"/>
-    <mergeCell ref="K1:S1"/>
-    <mergeCell ref="D3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G4"/>
-    <mergeCell ref="I4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="S4"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3"/>
-    <mergeCell ref="C3"/>
-    <mergeCell ref="F4"/>
-    <mergeCell ref="O3"/>
-    <mergeCell ref="E3"/>
-    <mergeCell ref="N4"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P4"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="H4"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="R4"/>
-    <mergeCell ref="E4"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="N3"/>
-    <mergeCell ref="F3"/>
-    <mergeCell ref="L3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="O4"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="Q4"/>
-    <mergeCell ref="J4"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>